--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB2550E-B255-4C44-9FD6-770599BA8ECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8173CC50-0162-499C-BCBC-BEFF6C40C822}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="450">
   <si>
     <t>type</t>
   </si>
@@ -81,24 +81,9 @@
     <t>integer</t>
   </si>
   <si>
-    <t>8. How many children have been registered for this school?</t>
-  </si>
-  <si>
     <t>12. Microscopist's initials</t>
   </si>
   <si>
-    <t>Asc_eps</t>
-  </si>
-  <si>
-    <t>Hook_eps</t>
-  </si>
-  <si>
-    <t>Trc_eps</t>
-  </si>
-  <si>
-    <t>note_stool</t>
-  </si>
-  <si>
     <t>Start of indivdual sample records</t>
   </si>
   <si>
@@ -241,9 +226,6 @@
   </si>
   <si>
     <t>s_school</t>
-  </si>
-  <si>
-    <t>s_noOfKids</t>
   </si>
   <si>
     <t>region_list = ${s_region}</t>
@@ -1336,9 +1318,6 @@
     <t>Yigile</t>
   </si>
   <si>
-    <t>u_InterviewerInit</t>
-  </si>
-  <si>
     <t>2. Reporter's code</t>
   </si>
   <si>
@@ -1352,9 +1331,6 @@
   </si>
   <si>
     <t>not(selected(${s_region}, ‘Somali’))</t>
-  </si>
-  <si>
-    <t>u_kebele_other</t>
   </si>
   <si>
     <t>selected(${s_region}, ‘Somali’)</t>
@@ -1377,6 +1353,36 @@
   </si>
   <si>
     <t>eth_sch_sth_remaping_4_stool_202105</t>
+  </si>
+  <si>
+    <t>s_InterviewerInit</t>
+  </si>
+  <si>
+    <t>s_kebele_other</t>
+  </si>
+  <si>
+    <t>s_Asc_eps</t>
+  </si>
+  <si>
+    <t>s_Hook_eps</t>
+  </si>
+  <si>
+    <t>s_Trc_eps</t>
+  </si>
+  <si>
+    <t>s_note_stool</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-3]{3}$')</t>
+  </si>
+  <si>
+    <t>The format must be 123-123456-123</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 99 and 1000</t>
   </si>
 </sst>
 </file>
@@ -2608,13 +2614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -2643,31 +2649,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>3</v>
@@ -2679,10 +2685,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2705,13 +2711,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2719,73 +2725,73 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2793,16 +2799,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N8" t="s">
         <v>13</v>
@@ -2810,16 +2816,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2827,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2841,115 +2847,127 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
+      <c r="C17" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -2957,13 +2975,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -2971,13 +2989,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>443</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -2985,63 +3003,49 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>444</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>445</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>446</v>
-      </c>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P23" s="6"/>
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3194,7 @@
   <dimension ref="A1:F364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3207,25 +3211,25 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F1" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -3236,7 +3240,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14">
         <v>2</v>
@@ -3252,4940 +3256,4940 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E322" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E323" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E324" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E325" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E328" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E329" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E331" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E332" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E338" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E340" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E341" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E343" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E344" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E345" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E346" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E349" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E361" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E362" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -8430,7 +8434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -8446,30 +8450,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C2">
         <v>202105</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -8478,11 +8482,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8709,27 +8714,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8754,9 +8749,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8173CC50-0162-499C-BCBC-BEFF6C40C822}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C06573-8E50-4561-9699-3B5B79B19067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1373,9 +1373,6 @@
     <t>s_note_stool</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-3]{3}$')</t>
-  </si>
-  <si>
     <t>The format must be 123-123456-123</t>
   </si>
   <si>
@@ -1383,6 +1380,9 @@
   </si>
   <si>
     <t>The code must be a two-digit number between 99 and 1000</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
   </si>
 </sst>
 </file>
@@ -2620,7 +2620,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,10 +2853,10 @@
         <v>434</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2896,10 +2896,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>77</v>

--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C06573-8E50-4561-9699-3B5B79B19067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B5F3D1-CB57-427F-86B2-006CCB481973}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="447">
   <si>
     <t>type</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Only ask if selected "Kebele name not on this list" to kebele</t>
   </si>
   <si>
-    <t>6. Record the GPS coordinates of the village</t>
-  </si>
-  <si>
     <t>7. Record School name</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>select_one woreda_list</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
     <t>select_one day_list</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
   </si>
   <si>
     <t>s_kebele</t>
-  </si>
-  <si>
-    <t>s_gps</t>
   </si>
   <si>
     <t>s_school</t>
@@ -268,9 +259,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>4. Ethiopia - Reassessment Form Stool</t>
-  </si>
-  <si>
     <t>Afar</t>
   </si>
   <si>
@@ -1343,18 +1331,12 @@
   </si>
   <si>
     <t>select_one kebele_list</t>
-  </si>
-  <si>
-    <t>(Is it possible to generate slide IDs, combining sample id, day and slide (A/B)?) To be discussed</t>
   </si>
   <si>
     <t xml:space="preserve">17. Comments on slide ${s_slide}
 </t>
   </si>
   <si>
-    <t>eth_sch_sth_remaping_4_stool_202105</t>
-  </si>
-  <si>
     <t>s_InterviewerInit</t>
   </si>
   <si>
@@ -1383,6 +1365,15 @@
   </si>
   <si>
     <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>202105_V2</t>
+  </si>
+  <si>
+    <t>4. Ethiopia - Reassessment Form Stool V2</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_4_stool_202105_v2</t>
   </si>
 </sst>
 </file>
@@ -2616,11 +2607,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -2649,31 +2640,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>3</v>
@@ -2685,10 +2676,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2711,87 +2702,87 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2799,33 +2790,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2833,41 +2810,41 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2887,59 +2864,56 @@
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>437</v>
+        <v>21</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2947,69 +2921,69 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -3017,10 +2991,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -3028,24 +3002,24 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3211,25 +3185,25 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -3240,7 +3214,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="14">
         <v>2</v>
@@ -3256,4940 +3230,4940 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E322" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E323" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E324" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E325" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E328" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E329" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E331" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E332" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E338" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E340" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E341" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E343" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E344" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E345" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E346" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E349" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E361" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E362" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -8434,8 +8408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8450,30 +8424,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C2">
-        <v>202105</v>
+        <v>446</v>
+      </c>
+      <c r="C2" t="s">
+        <v>444</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -8482,6 +8456,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8490,7 +8472,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -8713,15 +8695,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8729,7 +8720,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8746,21 +8737,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\Ethiopia\Formulaires_27.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781B32ED-0EE4-48FE-AE16-AEA05DC33C10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="447">
   <si>
     <t>type</t>
   </si>
@@ -1352,12 +1351,6 @@
     <t>The format must be 123-123456-123</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 99 and 1000</t>
-  </si>
-  <si>
     <t>regex(.,'^[0-9]{3}-[0-9]{6}-[0-9]{3}$')</t>
   </si>
   <si>
@@ -1371,12 +1364,21 @@
   </si>
   <si>
     <t>eth_sch_sth_remaping_4_stool_202105_v3</t>
+  </si>
+  <si>
+    <t>202105_V3</t>
+  </si>
+  <si>
+    <t>. &gt; 99 and . &lt; 10000</t>
+  </si>
+  <si>
+    <t>The code must be between 99 and 10000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2601,29 +2603,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="27.703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.29296875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="65.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="54.29296875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1171875" style="1"/>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="27.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="65.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2673,7 @@
       </c>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>432</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>423</v>
@@ -2694,7 +2696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -2717,7 +2719,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2725,13 +2727,13 @@
         <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>430</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2827,13 +2829,13 @@
         <v>428</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -2856,7 +2858,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>7</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>438</v>
@@ -2882,7 +2884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -2896,7 +2898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>53</v>
       </c>
@@ -2913,7 +2915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="43" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -2994,10 +2996,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -3008,7 +3010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -3161,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3169,18 +3171,18 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.87890625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1171875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18.1171875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.41015625" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="10"/>
+    <col min="1" max="1" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
@@ -3198,7 +3200,7 @@
       </c>
       <c r="F1" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>52</v>
       </c>
@@ -3220,12 +3222,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>54</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>54</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>36</v>
       </c>
@@ -3305,7 +3307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>36</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -3333,7 +3335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
@@ -3347,7 +3349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>36</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
@@ -3375,7 +3377,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>36</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
@@ -3459,7 +3461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
@@ -3473,7 +3475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
@@ -3487,7 +3489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>36</v>
       </c>
@@ -3501,7 +3503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>36</v>
       </c>
@@ -3515,7 +3517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
@@ -3529,7 +3531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
@@ -3557,7 +3559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>36</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>36</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
@@ -3613,7 +3615,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>36</v>
       </c>
@@ -3627,7 +3629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>36</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>36</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>36</v>
       </c>
@@ -3669,7 +3671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>36</v>
       </c>
@@ -3683,7 +3685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>36</v>
       </c>
@@ -3697,7 +3699,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>36</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>36</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>36</v>
       </c>
@@ -3739,7 +3741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>36</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>36</v>
       </c>
@@ -3767,7 +3769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>36</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>36</v>
       </c>
@@ -3795,7 +3797,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>36</v>
       </c>
@@ -3809,7 +3811,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>36</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -3837,7 +3839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>36</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>36</v>
       </c>
@@ -3865,7 +3867,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>36</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>36</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>36</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>36</v>
       </c>
@@ -3921,7 +3923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>36</v>
       </c>
@@ -3935,7 +3937,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>36</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>36</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>36</v>
       </c>
@@ -3977,7 +3979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>36</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>36</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>36</v>
       </c>
@@ -4019,7 +4021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>36</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>36</v>
       </c>
@@ -4047,7 +4049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>36</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>36</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>36</v>
       </c>
@@ -4089,7 +4091,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>36</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>36</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>36</v>
       </c>
@@ -4131,7 +4133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>36</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>36</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>36</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>36</v>
       </c>
@@ -4187,7 +4189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>36</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>36</v>
       </c>
@@ -4215,7 +4217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>36</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>36</v>
       </c>
@@ -4243,7 +4245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>36</v>
       </c>
@@ -4257,7 +4259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>36</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>36</v>
       </c>
@@ -4285,7 +4287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>36</v>
       </c>
@@ -4299,7 +4301,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>36</v>
       </c>
@@ -4313,7 +4315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>36</v>
       </c>
@@ -4327,7 +4329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>36</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>36</v>
       </c>
@@ -4355,7 +4357,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>36</v>
       </c>
@@ -4369,7 +4371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>36</v>
       </c>
@@ -4383,7 +4385,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>36</v>
       </c>
@@ -4397,7 +4399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>36</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>36</v>
       </c>
@@ -4425,7 +4427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>36</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>36</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>36</v>
       </c>
@@ -4467,7 +4469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>36</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>36</v>
       </c>
@@ -4495,7 +4497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>36</v>
       </c>
@@ -4509,7 +4511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>36</v>
       </c>
@@ -4523,7 +4525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>36</v>
       </c>
@@ -4537,7 +4539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>36</v>
       </c>
@@ -4551,7 +4553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>36</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>36</v>
       </c>
@@ -4579,7 +4581,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>36</v>
       </c>
@@ -4593,7 +4595,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>36</v>
       </c>
@@ -4607,7 +4609,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>36</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>36</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>36</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>36</v>
       </c>
@@ -4663,7 +4665,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>36</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>36</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>36</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>36</v>
       </c>
@@ -4719,7 +4721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>36</v>
       </c>
@@ -4733,7 +4735,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>36</v>
       </c>
@@ -4747,7 +4749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>36</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>36</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>36</v>
       </c>
@@ -4789,7 +4791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>36</v>
       </c>
@@ -4803,7 +4805,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>36</v>
       </c>
@@ -4817,7 +4819,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>36</v>
       </c>
@@ -4831,7 +4833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>36</v>
       </c>
@@ -4845,7 +4847,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>36</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>36</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>36</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>36</v>
       </c>
@@ -4901,7 +4903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>36</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>36</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>36</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>36</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>36</v>
       </c>
@@ -4971,7 +4973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>36</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>36</v>
       </c>
@@ -4999,7 +5001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>36</v>
       </c>
@@ -5013,7 +5015,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>36</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>36</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>36</v>
       </c>
@@ -5055,7 +5057,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>36</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>36</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>36</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>36</v>
       </c>
@@ -5111,7 +5113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>36</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>36</v>
       </c>
@@ -5139,7 +5141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>36</v>
       </c>
@@ -5153,7 +5155,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>36</v>
       </c>
@@ -5167,7 +5169,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>36</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>36</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>36</v>
       </c>
@@ -5209,7 +5211,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>36</v>
       </c>
@@ -5223,7 +5225,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>36</v>
       </c>
@@ -5237,7 +5239,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>36</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>37</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>37</v>
       </c>
@@ -5279,7 +5281,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>37</v>
       </c>
@@ -5293,7 +5295,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>37</v>
       </c>
@@ -5307,7 +5309,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>37</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>37</v>
       </c>
@@ -5335,7 +5337,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>37</v>
       </c>
@@ -5349,7 +5351,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>37</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>37</v>
       </c>
@@ -5377,7 +5379,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>37</v>
       </c>
@@ -5391,7 +5393,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>37</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>37</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>37</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>37</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>37</v>
       </c>
@@ -5461,7 +5463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>37</v>
       </c>
@@ -5475,7 +5477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>37</v>
       </c>
@@ -5489,7 +5491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>37</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>37</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>37</v>
       </c>
@@ -5531,7 +5533,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>37</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>37</v>
       </c>
@@ -5559,7 +5561,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>37</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>37</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>37</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>37</v>
       </c>
@@ -5615,7 +5617,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>37</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>37</v>
       </c>
@@ -5643,7 +5645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>37</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>37</v>
       </c>
@@ -5671,7 +5673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>37</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>37</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>37</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>37</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>37</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>37</v>
       </c>
@@ -5755,7 +5757,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>37</v>
       </c>
@@ -5769,7 +5771,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>37</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>37</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>37</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>37</v>
       </c>
@@ -5825,7 +5827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>37</v>
       </c>
@@ -5839,7 +5841,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>37</v>
       </c>
@@ -5853,7 +5855,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>37</v>
       </c>
@@ -5867,7 +5869,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>37</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>37</v>
       </c>
@@ -5895,7 +5897,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>37</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>37</v>
       </c>
@@ -5923,7 +5925,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>37</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>37</v>
       </c>
@@ -5951,7 +5953,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>37</v>
       </c>
@@ -5965,7 +5967,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>37</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>37</v>
       </c>
@@ -5993,7 +5995,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>37</v>
       </c>
@@ -6007,7 +6009,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>37</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>37</v>
       </c>
@@ -6035,7 +6037,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>37</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>37</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>37</v>
       </c>
@@ -6077,7 +6079,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>37</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>37</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>37</v>
       </c>
@@ -6119,7 +6121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>37</v>
       </c>
@@ -6133,7 +6135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>37</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>37</v>
       </c>
@@ -6161,7 +6163,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>37</v>
       </c>
@@ -6175,7 +6177,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>37</v>
       </c>
@@ -6189,7 +6191,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>37</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>37</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>37</v>
       </c>
@@ -6231,7 +6233,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>37</v>
       </c>
@@ -6245,7 +6247,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>37</v>
       </c>
@@ -6259,7 +6261,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>37</v>
       </c>
@@ -6273,7 +6275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>37</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>37</v>
       </c>
@@ -6301,7 +6303,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>37</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>37</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>37</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>37</v>
       </c>
@@ -6357,7 +6359,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>37</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>37</v>
       </c>
@@ -6385,7 +6387,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>37</v>
       </c>
@@ -6399,7 +6401,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>37</v>
       </c>
@@ -6413,7 +6415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>37</v>
       </c>
@@ -6427,7 +6429,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>37</v>
       </c>
@@ -6441,7 +6443,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
         <v>37</v>
       </c>
@@ -6455,7 +6457,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>37</v>
       </c>
@@ -6469,7 +6471,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
         <v>37</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>37</v>
       </c>
@@ -6497,7 +6499,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>37</v>
       </c>
@@ -6511,7 +6513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>37</v>
       </c>
@@ -6525,7 +6527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>37</v>
       </c>
@@ -6539,7 +6541,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>37</v>
       </c>
@@ -6553,7 +6555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>37</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>37</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>37</v>
       </c>
@@ -6595,7 +6597,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>37</v>
       </c>
@@ -6609,7 +6611,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>37</v>
       </c>
@@ -6623,7 +6625,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>37</v>
       </c>
@@ -6637,7 +6639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>37</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>37</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>37</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>37</v>
       </c>
@@ -6693,7 +6695,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>37</v>
       </c>
@@ -6707,7 +6709,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>37</v>
       </c>
@@ -6721,7 +6723,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>37</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>37</v>
       </c>
@@ -6749,7 +6751,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>37</v>
       </c>
@@ -6763,7 +6765,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>37</v>
       </c>
@@ -6777,7 +6779,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>37</v>
       </c>
@@ -6791,7 +6793,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>37</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>37</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>37</v>
       </c>
@@ -6833,7 +6835,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>37</v>
       </c>
@@ -6847,7 +6849,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>37</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>37</v>
       </c>
@@ -6875,7 +6877,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>37</v>
       </c>
@@ -6889,7 +6891,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>37</v>
       </c>
@@ -6903,7 +6905,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>37</v>
       </c>
@@ -6917,7 +6919,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>37</v>
       </c>
@@ -6931,7 +6933,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>37</v>
       </c>
@@ -6945,7 +6947,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>37</v>
       </c>
@@ -6959,7 +6961,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>37</v>
       </c>
@@ -6973,7 +6975,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>37</v>
       </c>
@@ -6987,7 +6989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>37</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
         <v>37</v>
       </c>
@@ -7015,7 +7017,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>37</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
         <v>37</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>37</v>
       </c>
@@ -7057,7 +7059,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
         <v>37</v>
       </c>
@@ -7071,7 +7073,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>37</v>
       </c>
@@ -7085,7 +7087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>37</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>37</v>
       </c>
@@ -7113,7 +7115,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>37</v>
       </c>
@@ -7127,7 +7129,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>37</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>37</v>
       </c>
@@ -7155,7 +7157,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>37</v>
       </c>
@@ -7169,7 +7171,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>37</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>37</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>37</v>
       </c>
@@ -7211,7 +7213,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>37</v>
       </c>
@@ -7225,7 +7227,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>37</v>
       </c>
@@ -7239,7 +7241,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
         <v>37</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>37</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>37</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>37</v>
       </c>
@@ -7295,7 +7297,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
         <v>37</v>
       </c>
@@ -7309,7 +7311,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>37</v>
       </c>
@@ -7323,7 +7325,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>37</v>
       </c>
@@ -7337,7 +7339,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>37</v>
       </c>
@@ -7351,7 +7353,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>37</v>
       </c>
@@ -7365,7 +7367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>37</v>
       </c>
@@ -7379,7 +7381,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>37</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>37</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>37</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>37</v>
       </c>
@@ -7435,7 +7437,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>37</v>
       </c>
@@ -7449,7 +7451,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>37</v>
       </c>
@@ -7463,7 +7465,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>37</v>
       </c>
@@ -7477,7 +7479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>37</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>37</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>37</v>
       </c>
@@ -7519,7 +7521,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>37</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>37</v>
       </c>
@@ -7547,7 +7549,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>37</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>37</v>
       </c>
@@ -7575,7 +7577,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>37</v>
       </c>
@@ -7589,7 +7591,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
         <v>37</v>
       </c>
@@ -7603,7 +7605,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>37</v>
       </c>
@@ -7617,7 +7619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>37</v>
       </c>
@@ -7631,7 +7633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>37</v>
       </c>
@@ -7645,7 +7647,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
         <v>37</v>
       </c>
@@ -7659,7 +7661,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
         <v>37</v>
       </c>
@@ -7673,7 +7675,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>37</v>
       </c>
@@ -7687,7 +7689,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
         <v>37</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>37</v>
       </c>
@@ -7715,7 +7717,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>37</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>37</v>
       </c>
@@ -7743,7 +7745,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>37</v>
       </c>
@@ -7757,7 +7759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
         <v>37</v>
       </c>
@@ -7771,7 +7773,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>37</v>
       </c>
@@ -7785,7 +7787,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
         <v>37</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
         <v>37</v>
       </c>
@@ -7813,7 +7815,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
         <v>37</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>37</v>
       </c>
@@ -7841,7 +7843,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>37</v>
       </c>
@@ -7855,7 +7857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>37</v>
       </c>
@@ -7869,7 +7871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
         <v>37</v>
       </c>
@@ -7883,7 +7885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
         <v>37</v>
       </c>
@@ -7897,7 +7899,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
         <v>37</v>
       </c>
@@ -7911,7 +7913,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
         <v>37</v>
       </c>
@@ -7925,7 +7927,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>37</v>
       </c>
@@ -7939,7 +7941,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>37</v>
       </c>
@@ -7953,7 +7955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
         <v>37</v>
       </c>
@@ -7967,7 +7969,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
         <v>37</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
         <v>37</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
         <v>37</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
         <v>37</v>
       </c>
@@ -8023,7 +8025,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
         <v>37</v>
       </c>
@@ -8037,7 +8039,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
         <v>37</v>
       </c>
@@ -8051,7 +8053,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>37</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
         <v>37</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
         <v>37</v>
       </c>
@@ -8093,7 +8095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
         <v>37</v>
       </c>
@@ -8107,7 +8109,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
         <v>37</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
         <v>37</v>
       </c>
@@ -8135,7 +8137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
         <v>37</v>
       </c>
@@ -8149,7 +8151,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>37</v>
       </c>
@@ -8164,7 +8166,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+  <sortState ref="A2:C23">
     <sortCondition ref="B2:B23"/>
   </sortState>
   <conditionalFormatting sqref="B1">
@@ -8402,24 +8404,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.29296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.29296875" customWidth="1"/>
-    <col min="4" max="4" width="16.1171875" customWidth="1"/>
-    <col min="5" max="5" width="17.1171875" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
@@ -8433,15 +8435,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" t="s">
         <v>444</v>
-      </c>
-      <c r="B2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2">
-        <v>2021053</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>

--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_4_stool_202105.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="448">
   <si>
     <t>type</t>
   </si>
@@ -1360,19 +1360,22 @@
     <t>2. Date of survey</t>
   </si>
   <si>
-    <t>4. Ethiopia – Reassessment Stool Form V3</t>
-  </si>
-  <si>
-    <t>eth_sch_sth_remaping_4_stool_202105_v3</t>
-  </si>
-  <si>
-    <t>202105_V3</t>
-  </si>
-  <si>
     <t>. &gt; 99 and . &lt; 10000</t>
   </si>
   <si>
     <t>The code must be between 99 and 10000</t>
+  </si>
+  <si>
+    <t>Malka Karro</t>
+  </si>
+  <si>
+    <t>4. Ethiopia – Reassessment Stool Form V3.1</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_4_stool_202105_v3.1</t>
+  </si>
+  <si>
+    <t>202105_V3.1</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2829,10 +2832,10 @@
         <v>428</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3164,11 +3167,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F364"/>
+  <dimension ref="A1:F365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A311" sqref="A311:XFD311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7414,13 +7417,13 @@
         <v>37</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7428,13 +7431,13 @@
         <v>37</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7442,13 +7445,13 @@
         <v>37</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7456,13 +7459,13 @@
         <v>37</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7470,13 +7473,13 @@
         <v>37</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7484,13 +7487,13 @@
         <v>37</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -7498,13 +7501,13 @@
         <v>37</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -7512,13 +7515,13 @@
         <v>37</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -7526,13 +7529,13 @@
         <v>37</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -7540,13 +7543,13 @@
         <v>37</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -7554,13 +7557,13 @@
         <v>37</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -7568,13 +7571,13 @@
         <v>37</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E322" s="10" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7582,13 +7585,13 @@
         <v>37</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E323" s="10" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7596,13 +7599,13 @@
         <v>37</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E324" s="10" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7610,13 +7613,13 @@
         <v>37</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E325" s="10" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7624,13 +7627,13 @@
         <v>37</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7638,13 +7641,13 @@
         <v>37</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7652,13 +7655,13 @@
         <v>37</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E328" s="10" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7666,13 +7669,13 @@
         <v>37</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E329" s="10" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7680,13 +7683,13 @@
         <v>37</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7694,13 +7697,13 @@
         <v>37</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E331" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7708,13 +7711,13 @@
         <v>37</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E332" s="10" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7722,13 +7725,13 @@
         <v>37</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7736,13 +7739,13 @@
         <v>37</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -7750,13 +7753,13 @@
         <v>37</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7764,13 +7767,13 @@
         <v>37</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7778,13 +7781,13 @@
         <v>37</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7792,13 +7795,13 @@
         <v>37</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E338" s="10" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7806,13 +7809,13 @@
         <v>37</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7820,13 +7823,13 @@
         <v>37</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E340" s="10" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7834,13 +7837,13 @@
         <v>37</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E341" s="10" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -7848,13 +7851,13 @@
         <v>37</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -7862,13 +7865,13 @@
         <v>37</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E343" s="10" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -7876,13 +7879,13 @@
         <v>37</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E344" s="10" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7890,13 +7893,13 @@
         <v>37</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E345" s="10" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7904,13 +7907,13 @@
         <v>37</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E346" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7918,13 +7921,13 @@
         <v>37</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -7932,13 +7935,13 @@
         <v>37</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -7946,13 +7949,13 @@
         <v>37</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E349" s="10" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -7960,13 +7963,13 @@
         <v>37</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -7974,13 +7977,13 @@
         <v>37</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -7988,13 +7991,13 @@
         <v>37</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -8002,13 +8005,13 @@
         <v>37</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -8016,13 +8019,13 @@
         <v>37</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -8030,13 +8033,13 @@
         <v>37</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -8044,13 +8047,13 @@
         <v>37</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8058,13 +8061,13 @@
         <v>37</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -8072,13 +8075,13 @@
         <v>37</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -8086,13 +8089,13 @@
         <v>37</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -8100,13 +8103,13 @@
         <v>37</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -8114,13 +8117,13 @@
         <v>37</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E361" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -8128,13 +8131,13 @@
         <v>37</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E362" s="10" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8142,13 +8145,13 @@
         <v>37</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8156,12 +8159,26 @@
         <v>37</v>
       </c>
       <c r="B364" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C364" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E364" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B365" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C364" s="10" t="s">
+      <c r="C365" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="E364" s="10" t="s">
+      <c r="E365" s="10" t="s">
         <v>149</v>
       </c>
     </row>
@@ -8407,8 +8424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8437,13 +8454,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -8455,23 +8472,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -8694,32 +8694,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8736,4 +8728,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1c1dd18d-f55f-49c2-86f0-6528711f8c6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>